--- a/shanshi/脚本详情.xlsx
+++ b/shanshi/脚本详情.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Note\File\code\github\monitor_network\shanshi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A668DE0B-6060-4437-A3BC-8F5232F42C73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BF88D0-6FD4-469E-9011-DCBB68107076}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>序号</t>
   </si>
@@ -154,6 +154,41 @@
   </si>
   <si>
     <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚本名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_uptime.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_ps.py</t>
+  </si>
+  <si>
+    <t>check_module.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_cpu.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_mem.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_temperature.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_policy.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_fan.py</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -198,7 +233,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -258,11 +293,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -292,6 +336,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -574,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -588,9 +641,10 @@
     <col min="5" max="5" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,8 +666,11 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H1" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -635,8 +692,11 @@
       <c r="G2" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H2" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -658,8 +718,11 @@
       <c r="G3" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H3" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -681,8 +744,11 @@
       <c r="G4" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H4" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -704,8 +770,11 @@
       <c r="G5" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H5" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -727,8 +796,11 @@
       <c r="G6" s="10">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H6" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -750,8 +822,11 @@
       <c r="G7" s="10">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H7" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -773,8 +848,11 @@
       <c r="G8" s="8">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H8" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -796,8 +874,11 @@
       <c r="G9" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H9" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -819,8 +900,11 @@
       <c r="G10" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H10" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -840,6 +924,9 @@
         <v>41</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>41</v>
       </c>
     </row>
